--- a/practice_note.xlsx
+++ b/practice_note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewo\bigdata_exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65093402-97EF-4623-9556-94549B74FCDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416E7B8-D223-4D88-90C9-B5386D77C937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{531C6767-044B-4F45-8E56-A164CE783FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>실기과목명</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>prac_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -589,7 +593,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -666,6 +670,9 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
@@ -675,6 +682,9 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">

--- a/practice_note.xlsx
+++ b/practice_note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewo\bigdata_exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416E7B8-D223-4D88-90C9-B5386D77C937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A689C21-A8A9-411B-A3DF-01FC2FE62E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{531C6767-044B-4F45-8E56-A164CE783FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>실기과목명</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>데이터의 유형을 원하는 형태로 변환할 수 있다.</t>
-  </si>
-  <si>
-    <t>데이터의 범위를 표준화 또는 정규화를 통해 일치시킬 수 있다.</t>
   </si>
   <si>
     <t>기존 변수를 이용하여 의미 있는 새로운 변수를 생성하거나 변수를 선택할 수 있다.</t>
@@ -138,6 +135,184 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표준화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일치시킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +352,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -242,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +785,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -617,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -634,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -645,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -660,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -671,7 +863,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -684,15 +876,18 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -700,19 +895,25 @@
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+      <c r="E9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -720,7 +921,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -728,17 +932,23 @@
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -746,7 +956,10 @@
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -754,19 +967,25 @@
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
+      <c r="E15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -774,33 +993,42 @@
       <c r="B16" s="9"/>
       <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="7"/>
       <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
